--- a/documents/slot数据采集源表20250411_1734.xlsx
+++ b/documents/slot数据采集源表20250411_1734.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Data" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,13 +1366,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1842,28 +1835,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1872,118 +1868,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2340,8 +2333,8 @@
   <sheetPr/>
   <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/documents/slot数据采集源表20250411_1734.xlsx
+++ b/documents/slot数据采集源表20250411_1734.xlsx
@@ -1350,11 +1350,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1980,9 +1981,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2333,31 +2338,31 @@
   <sheetPr/>
   <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2368,7 +2373,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>632575052</v>
       </c>
       <c r="D2">
@@ -2385,7 +2390,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>632551052</v>
       </c>
       <c r="D3">
@@ -2402,7 +2407,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>632527052</v>
       </c>
       <c r="D4">
@@ -2419,7 +2424,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>632503052</v>
       </c>
       <c r="D5">
@@ -2436,7 +2441,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>632686052</v>
       </c>
       <c r="D6">
@@ -2453,7 +2458,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>632662052</v>
       </c>
       <c r="D7">
@@ -2470,7 +2475,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>632662052</v>
       </c>
       <c r="D8">
@@ -2487,7 +2492,7 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>632647052</v>
       </c>
       <c r="D9">
@@ -2504,7 +2509,7 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>632623052</v>
       </c>
       <c r="D10">
@@ -2521,7 +2526,7 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>633139052</v>
       </c>
       <c r="D11">
@@ -2538,7 +2543,7 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>633133052</v>
       </c>
       <c r="D12">
@@ -2555,7 +2560,7 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>633355052</v>
       </c>
       <c r="D13">
@@ -2572,7 +2577,7 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>633361052</v>
       </c>
       <c r="D14">
@@ -2589,7 +2594,7 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>633337052</v>
       </c>
       <c r="D15">
@@ -2606,7 +2611,7 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>633313052</v>
       </c>
       <c r="D16">
@@ -2623,7 +2628,7 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>633343052</v>
       </c>
       <c r="D17">
@@ -2640,7 +2645,7 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>633742052</v>
       </c>
       <c r="D18">
@@ -2657,7 +2662,7 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>633727052</v>
       </c>
       <c r="D19">
@@ -2674,7 +2679,7 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>633883052</v>
       </c>
       <c r="D20">
@@ -2691,7 +2696,7 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>633865052</v>
       </c>
       <c r="D21">
@@ -2708,7 +2713,7 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>633826052</v>
       </c>
       <c r="D22">
@@ -2725,7 +2730,7 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>633802052</v>
       </c>
       <c r="D23">
@@ -2742,7 +2747,7 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>633778052</v>
       </c>
       <c r="D24">
@@ -2759,7 +2764,7 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>633754052</v>
       </c>
       <c r="D25">
@@ -2776,7 +2781,7 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>633730052</v>
       </c>
       <c r="D26">
@@ -2793,7 +2798,7 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>634210052</v>
       </c>
       <c r="D27">
@@ -2810,7 +2815,7 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>634240052</v>
       </c>
       <c r="D28">
@@ -2827,7 +2832,7 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>634252052</v>
       </c>
       <c r="D29">
@@ -2844,7 +2849,7 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>634246052</v>
       </c>
       <c r="D30">
@@ -2861,7 +2866,7 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>634237052</v>
       </c>
       <c r="D31">
@@ -2878,7 +2883,7 @@
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>634213052</v>
       </c>
       <c r="D32">
@@ -2895,7 +2900,7 @@
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>634189052</v>
       </c>
       <c r="D33">
@@ -2912,7 +2917,7 @@
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>634345052</v>
       </c>
       <c r="D34">
@@ -2940,7 +2945,7 @@
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>635245052</v>
       </c>
       <c r="D36">
@@ -2957,7 +2962,7 @@
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>635221052</v>
       </c>
       <c r="D37">
@@ -2974,7 +2979,7 @@
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>635197052</v>
       </c>
       <c r="D38">
@@ -3002,7 +3007,7 @@
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>635413052</v>
       </c>
       <c r="D40">
@@ -3019,7 +3024,7 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>635389052</v>
       </c>
       <c r="D41">
@@ -3036,7 +3041,7 @@
       <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>635485052</v>
       </c>
       <c r="D42">
@@ -3053,7 +3058,7 @@
       <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>635461052</v>
       </c>
       <c r="D43">
@@ -3070,7 +3075,7 @@
       <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>635437052</v>
       </c>
       <c r="D44">
@@ -3087,7 +3092,7 @@
       <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>635407052</v>
       </c>
       <c r="D45">
@@ -3104,7 +3109,7 @@
       <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>635395052</v>
       </c>
       <c r="D46">
@@ -3121,7 +3126,7 @@
       <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>635371052</v>
       </c>
       <c r="D47">
@@ -3138,7 +3143,7 @@
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>635401052</v>
       </c>
       <c r="D48">
@@ -3155,7 +3160,7 @@
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>635377052</v>
       </c>
       <c r="D49">
@@ -3172,7 +3177,7 @@
       <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>635353052</v>
       </c>
       <c r="D50">
@@ -3189,7 +3194,7 @@
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>635329052</v>
       </c>
       <c r="D51">
@@ -3206,7 +3211,7 @@
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>635305052</v>
       </c>
       <c r="D52">
@@ -3223,7 +3228,7 @@
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>635341052</v>
       </c>
       <c r="D53">
@@ -3240,7 +3245,7 @@
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>635509052</v>
       </c>
       <c r="D54">
@@ -3257,7 +3262,7 @@
       <c r="B55">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>636541052</v>
       </c>
       <c r="D55">
@@ -3274,7 +3279,7 @@
       <c r="B56">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>636517052</v>
       </c>
       <c r="D56">
@@ -3291,7 +3296,7 @@
       <c r="B57">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>636493052</v>
       </c>
       <c r="D57">
@@ -3308,7 +3313,7 @@
       <c r="B58">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>636475052</v>
       </c>
       <c r="D58">
@@ -3325,7 +3330,7 @@
       <c r="B59">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>636583052</v>
       </c>
       <c r="D59">
@@ -3342,7 +3347,7 @@
       <c r="B60">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>636559052</v>
       </c>
       <c r="D60">
@@ -3359,7 +3364,7 @@
       <c r="B61">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>636541052</v>
       </c>
       <c r="D61">
@@ -3376,7 +3381,7 @@
       <c r="B62">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>636517052</v>
       </c>
       <c r="D62">
@@ -3393,7 +3398,7 @@
       <c r="B63">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>636493052</v>
       </c>
       <c r="D63">
@@ -3410,7 +3415,7 @@
       <c r="B64">
         <v>63</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>636829052</v>
       </c>
       <c r="D64">
@@ -3427,7 +3432,7 @@
       <c r="B65">
         <v>64</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>636805052</v>
       </c>
       <c r="D65">
@@ -3444,7 +3449,7 @@
       <c r="B66">
         <v>65</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>636781052</v>
       </c>
       <c r="D66">
@@ -3461,7 +3466,7 @@
       <c r="B67">
         <v>66</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>636763052</v>
       </c>
       <c r="D67">
@@ -3478,7 +3483,7 @@
       <c r="B68">
         <v>67</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>636739052</v>
       </c>
       <c r="D68">
@@ -3495,7 +3500,7 @@
       <c r="B69">
         <v>68</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>637117052</v>
       </c>
       <c r="D69">
@@ -3512,7 +3517,7 @@
       <c r="B70">
         <v>69</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>637093052</v>
       </c>
       <c r="D70">
@@ -3529,7 +3534,7 @@
       <c r="B71">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>637069052</v>
       </c>
       <c r="D71">
@@ -3546,7 +3551,7 @@
       <c r="B72">
         <v>71</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>637045052</v>
       </c>
       <c r="D72">
@@ -3563,7 +3568,7 @@
       <c r="B73">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>637021052</v>
       </c>
       <c r="D73">
@@ -3580,7 +3585,7 @@
       <c r="B74">
         <v>73</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>636997052</v>
       </c>
       <c r="D74">
@@ -3597,7 +3602,7 @@
       <c r="B75">
         <v>74</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>639721052</v>
       </c>
       <c r="D75">
@@ -3614,7 +3619,7 @@
       <c r="B76">
         <v>75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>639697052</v>
       </c>
       <c r="D76">
@@ -3631,7 +3636,7 @@
       <c r="B77">
         <v>76</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>639673052</v>
       </c>
       <c r="D77">
@@ -3648,7 +3653,7 @@
       <c r="B78">
         <v>77</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>639670052</v>
       </c>
       <c r="D78">
@@ -3665,7 +3670,7 @@
       <c r="B79">
         <v>78</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>639658052</v>
       </c>
       <c r="D79">
@@ -3682,7 +3687,7 @@
       <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>639814052</v>
       </c>
       <c r="D80">
@@ -3699,7 +3704,7 @@
       <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>639790052</v>
       </c>
       <c r="D81">
@@ -3716,7 +3721,7 @@
       <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>639766052</v>
       </c>
       <c r="D82">
@@ -3733,7 +3738,7 @@
       <c r="B83">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>639742052</v>
       </c>
       <c r="D83">
@@ -3750,7 +3755,7 @@
       <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>39742052</v>
       </c>
       <c r="D84">
@@ -3767,7 +3772,7 @@
       <c r="B85">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>639885755</v>
       </c>
       <c r="D85">
@@ -3784,7 +3789,7 @@
       <c r="B86">
         <v>85</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>640360052</v>
       </c>
       <c r="D86">
@@ -3801,7 +3806,7 @@
       <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>640558052</v>
       </c>
       <c r="D87">
@@ -3818,7 +3823,7 @@
       <c r="B88">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>640630052</v>
       </c>
       <c r="D88">
@@ -3835,7 +3840,7 @@
       <c r="B89">
         <v>88</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>640606052</v>
       </c>
       <c r="D89">
@@ -3852,7 +3857,7 @@
       <c r="B90">
         <v>89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>640582052</v>
       </c>
       <c r="D90">
@@ -3869,7 +3874,7 @@
       <c r="B91">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>640564052</v>
       </c>
       <c r="D91">
@@ -3886,7 +3891,7 @@
       <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>640540052</v>
       </c>
       <c r="D92">
@@ -3903,7 +3908,7 @@
       <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>640516052</v>
       </c>
       <c r="D93">
@@ -3920,7 +3925,7 @@
       <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>640492052</v>
       </c>
       <c r="D94">
@@ -3937,7 +3942,7 @@
       <c r="B95">
         <v>94</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>640468052</v>
       </c>
       <c r="D95">
@@ -3954,7 +3959,7 @@
       <c r="B96">
         <v>95</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>640444052</v>
       </c>
       <c r="D96">
@@ -3971,7 +3976,7 @@
       <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>640420052</v>
       </c>
       <c r="D97">
@@ -3988,7 +3993,7 @@
       <c r="B98">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>640393052</v>
       </c>
       <c r="D98">
@@ -4005,7 +4010,7 @@
       <c r="B99">
         <v>98</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>640369052</v>
       </c>
       <c r="D99">
@@ -4022,7 +4027,7 @@
       <c r="B100">
         <v>99</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>640417052</v>
       </c>
       <c r="D100">
@@ -4039,7 +4044,7 @@
       <c r="B101">
         <v>100</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>640405052</v>
       </c>
       <c r="D101">
@@ -4056,7 +4061,7 @@
       <c r="B102">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>640381052</v>
       </c>
       <c r="D102">
@@ -4073,7 +4078,7 @@
       <c r="B103">
         <v>102</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>640357052</v>
       </c>
       <c r="D103">
@@ -4090,7 +4095,7 @@
       <c r="B104">
         <v>103</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>640333052</v>
       </c>
       <c r="D104">
@@ -4107,7 +4112,7 @@
       <c r="B105">
         <v>104</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>640309052</v>
       </c>
       <c r="D105">
@@ -4124,7 +4129,7 @@
       <c r="B106">
         <v>105</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>640312052</v>
       </c>
       <c r="D106">
@@ -4141,7 +4146,7 @@
       <c r="B107">
         <v>106</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>640288052</v>
       </c>
       <c r="D107">
@@ -4158,7 +4163,7 @@
       <c r="B108">
         <v>107</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>640264052</v>
       </c>
       <c r="D108">
@@ -4175,7 +4180,7 @@
       <c r="B109">
         <v>108</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>640240052</v>
       </c>
       <c r="D109">
@@ -4192,7 +4197,7 @@
       <c r="B110">
         <v>109</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>640216052</v>
       </c>
       <c r="D110">
@@ -4209,7 +4214,7 @@
       <c r="B111">
         <v>110</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>640192052</v>
       </c>
       <c r="D111">
@@ -4226,7 +4231,7 @@
       <c r="B112">
         <v>111</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>640168052</v>
       </c>
       <c r="D112">
@@ -4243,7 +4248,7 @@
       <c r="B113">
         <v>112</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>640288052</v>
       </c>
       <c r="D113">
@@ -4260,7 +4265,7 @@
       <c r="B114">
         <v>113</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>640264052</v>
       </c>
       <c r="D114">
@@ -4277,7 +4282,7 @@
       <c r="B115">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>640246052</v>
       </c>
       <c r="D115">
@@ -4294,7 +4299,7 @@
       <c r="B116">
         <v>115</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>640222052</v>
       </c>
       <c r="D116">
@@ -4311,7 +4316,7 @@
       <c r="B117">
         <v>116</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>640198052</v>
       </c>
       <c r="D117">
@@ -4328,7 +4333,7 @@
       <c r="B118">
         <v>117</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>640294052</v>
       </c>
       <c r="D118">
@@ -4345,7 +4350,7 @@
       <c r="B119">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>640270052</v>
       </c>
       <c r="D119">
@@ -4362,7 +4367,7 @@
       <c r="B120">
         <v>119</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>640246052</v>
       </c>
       <c r="D120">
@@ -4379,7 +4384,7 @@
       <c r="B121">
         <v>120</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>640222052</v>
       </c>
       <c r="D121">
@@ -4396,7 +4401,7 @@
       <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>640198052</v>
       </c>
       <c r="D122">
@@ -4413,7 +4418,7 @@
       <c r="B123">
         <v>122</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>640228052</v>
       </c>
       <c r="D123">
@@ -4430,7 +4435,7 @@
       <c r="B124">
         <v>123</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>640216052</v>
       </c>
       <c r="D124">
@@ -4447,7 +4452,7 @@
       <c r="B125">
         <v>124</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>640192052</v>
       </c>
       <c r="D125">
@@ -4464,7 +4469,7 @@
       <c r="B126">
         <v>125</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>640168052</v>
       </c>
       <c r="D126">
@@ -4481,7 +4486,7 @@
       <c r="B127">
         <v>126</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>640150052</v>
       </c>
       <c r="D127">
@@ -4498,7 +4503,7 @@
       <c r="B128">
         <v>127</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>640132052</v>
       </c>
       <c r="D128">
@@ -4515,7 +4520,7 @@
       <c r="B129">
         <v>128</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>640108052</v>
       </c>
       <c r="D129">
@@ -4532,7 +4537,7 @@
       <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>640099052</v>
       </c>
       <c r="D130">
@@ -4549,7 +4554,7 @@
       <c r="B131">
         <v>130</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>640051052</v>
       </c>
       <c r="D131">
@@ -4566,7 +4571,7 @@
       <c r="B132">
         <v>131</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>640027052</v>
       </c>
       <c r="D132">
@@ -4583,7 +4588,7 @@
       <c r="B133">
         <v>132</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>640003052</v>
       </c>
       <c r="D133">
@@ -4600,7 +4605,7 @@
       <c r="B134">
         <v>133</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>639979052</v>
       </c>
       <c r="D134">
@@ -4617,7 +4622,7 @@
       <c r="B135">
         <v>134</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>639955052</v>
       </c>
       <c r="D135">
@@ -4634,7 +4639,7 @@
       <c r="B136">
         <v>135</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>639937052</v>
       </c>
       <c r="D136">
@@ -4651,7 +4656,7 @@
       <c r="B137">
         <v>136</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>639931052</v>
       </c>
       <c r="D137">
@@ -4668,7 +4673,7 @@
       <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>639907052</v>
       </c>
       <c r="D138">
@@ -4685,7 +4690,7 @@
       <c r="B139">
         <v>138</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>639883052</v>
       </c>
       <c r="D139">
@@ -4702,7 +4707,7 @@
       <c r="B140">
         <v>139</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>639859052</v>
       </c>
       <c r="D140">
@@ -4719,7 +4724,7 @@
       <c r="B141">
         <v>140</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>639871052</v>
       </c>
       <c r="D141">
@@ -4736,7 +4741,7 @@
       <c r="B142">
         <v>141</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>639856052</v>
       </c>
       <c r="D142">
@@ -4753,7 +4758,7 @@
       <c r="B143">
         <v>142</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>795352052</v>
       </c>
       <c r="D143">
@@ -4770,7 +4775,7 @@
       <c r="B144">
         <v>143</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>795328052</v>
       </c>
       <c r="D144">
@@ -4787,7 +4792,7 @@
       <c r="B145">
         <v>144</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>795316052</v>
       </c>
       <c r="D145">
@@ -4804,7 +4809,7 @@
       <c r="B146">
         <v>145</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>795412052</v>
       </c>
       <c r="D146">
@@ -4821,7 +4826,7 @@
       <c r="B147">
         <v>146</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>795388052</v>
       </c>
       <c r="D147">
@@ -4838,7 +4843,7 @@
       <c r="B148">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>795364052</v>
       </c>
       <c r="D148">
@@ -4855,7 +4860,7 @@
       <c r="B149">
         <v>148</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>795340052</v>
       </c>
       <c r="D149">
@@ -4872,7 +4877,7 @@
       <c r="B150">
         <v>149</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>795274052</v>
       </c>
       <c r="D150">
@@ -4889,7 +4894,7 @@
       <c r="B151">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>795262052</v>
       </c>
       <c r="D151">
@@ -4906,7 +4911,7 @@
       <c r="B152">
         <v>151</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>795238052</v>
       </c>
       <c r="D152">
@@ -4923,7 +4928,7 @@
       <c r="B153">
         <v>152</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>795214052</v>
       </c>
       <c r="D153">
@@ -4940,7 +4945,7 @@
       <c r="B154">
         <v>153</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>795196052</v>
       </c>
       <c r="D154">
@@ -4957,7 +4962,7 @@
       <c r="B155">
         <v>154</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>795172052</v>
       </c>
       <c r="D155">
@@ -4974,7 +4979,7 @@
       <c r="B156">
         <v>155</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>79544200</v>
       </c>
       <c r="D156">
@@ -4991,7 +4996,7 @@
       <c r="B157">
         <v>156</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>795478052</v>
       </c>
       <c r="D157">
@@ -5008,7 +5013,7 @@
       <c r="B158">
         <v>157</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>795454052</v>
       </c>
       <c r="D158">
@@ -5025,7 +5030,7 @@
       <c r="B159">
         <v>158</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>795550052</v>
       </c>
       <c r="D159">
@@ -5042,7 +5047,7 @@
       <c r="B160">
         <v>159</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>795526052</v>
       </c>
       <c r="D160">
@@ -5059,7 +5064,7 @@
       <c r="B161">
         <v>160</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>795502052</v>
       </c>
       <c r="D161">
@@ -5076,7 +5081,7 @@
       <c r="B162">
         <v>161</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>795478052</v>
       </c>
       <c r="D162">
@@ -5093,7 +5098,7 @@
       <c r="B163">
         <v>162</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>795454052</v>
       </c>
       <c r="D163">
@@ -5110,7 +5115,7 @@
       <c r="B164">
         <v>163</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>795430052</v>
       </c>
       <c r="D164">
@@ -5127,7 +5132,7 @@
       <c r="B165">
         <v>164</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>795424052</v>
       </c>
       <c r="D165">
@@ -5144,7 +5149,7 @@
       <c r="B166">
         <v>165</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>795400052</v>
       </c>
       <c r="D166">
@@ -5161,7 +5166,7 @@
       <c r="B167">
         <v>166</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>795391052</v>
       </c>
       <c r="D167">
@@ -5189,7 +5194,7 @@
       <c r="B169">
         <v>168</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>795847052</v>
       </c>
       <c r="D169">
@@ -5206,7 +5211,7 @@
       <c r="B170">
         <v>169</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>795823052</v>
       </c>
       <c r="D170">
@@ -5223,7 +5228,7 @@
       <c r="B171">
         <v>170</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>796063052</v>
       </c>
       <c r="D171">
@@ -5240,7 +5245,7 @@
       <c r="B172">
         <v>171</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>796039052</v>
       </c>
       <c r="D172">
@@ -5257,7 +5262,7 @@
       <c r="B173">
         <v>172</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>796021052</v>
       </c>
       <c r="D173">
@@ -5274,7 +5279,7 @@
       <c r="B174">
         <v>173</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>796321052</v>
       </c>
       <c r="D174">
@@ -5291,7 +5296,7 @@
       <c r="B175">
         <v>174</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>796249052</v>
       </c>
       <c r="D175">
@@ -5308,7 +5313,7 @@
       <c r="B176">
         <v>175</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>796225052</v>
       </c>
       <c r="D176">
@@ -5325,7 +5330,7 @@
       <c r="B177">
         <v>176</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>796207052</v>
       </c>
       <c r="D177">
@@ -5342,7 +5347,7 @@
       <c r="B178">
         <v>177</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>796183052</v>
       </c>
       <c r="D178">
@@ -5359,7 +5364,7 @@
       <c r="B179">
         <v>178</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>796159052</v>
       </c>
       <c r="D179">
@@ -5376,7 +5381,7 @@
       <c r="B180">
         <v>179</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>796135052</v>
       </c>
       <c r="D180">
@@ -5393,7 +5398,7 @@
       <c r="B181">
         <v>180</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>796123052</v>
       </c>
       <c r="D181">
@@ -5410,7 +5415,7 @@
       <c r="B182">
         <v>181</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>796099052</v>
       </c>
       <c r="D182">
@@ -5427,7 +5432,7 @@
       <c r="B183">
         <v>182</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>796075052</v>
       </c>
       <c r="D183">
@@ -5444,7 +5449,7 @@
       <c r="B184">
         <v>183</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>796051052</v>
       </c>
       <c r="D184">
@@ -5461,7 +5466,7 @@
       <c r="B185">
         <v>184</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>796819052</v>
       </c>
       <c r="D185">
@@ -5478,7 +5483,7 @@
       <c r="B186">
         <v>185</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>796813052</v>
       </c>
       <c r="D186">
@@ -5495,7 +5500,7 @@
       <c r="B187">
         <v>186</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>796789052</v>
       </c>
       <c r="D187">
@@ -5512,7 +5517,7 @@
       <c r="B188">
         <v>187</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>796765052</v>
       </c>
       <c r="D188">
@@ -5529,7 +5534,7 @@
       <c r="B189">
         <v>188</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>796741052</v>
       </c>
       <c r="D189">
@@ -5546,7 +5551,7 @@
       <c r="B190">
         <v>189</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>796717052</v>
       </c>
       <c r="D190">
@@ -5563,7 +5568,7 @@
       <c r="B191">
         <v>190</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>798037052</v>
       </c>
       <c r="D191">
@@ -5580,7 +5585,7 @@
       <c r="B192">
         <v>191</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>798013052</v>
       </c>
       <c r="D192">
@@ -5597,7 +5602,7 @@
       <c r="B193">
         <v>192</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>797941052</v>
       </c>
       <c r="D193">
@@ -5614,7 +5619,7 @@
       <c r="B194">
         <v>193</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>797917052</v>
       </c>
       <c r="D194">
@@ -5631,7 +5636,7 @@
       <c r="B195">
         <v>194</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>797899052</v>
       </c>
       <c r="D195">
@@ -5648,7 +5653,7 @@
       <c r="B196">
         <v>195</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>797890052</v>
       </c>
       <c r="D196">
@@ -5665,7 +5670,7 @@
       <c r="B197">
         <v>196</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>797866052</v>
       </c>
       <c r="D197">
@@ -5682,7 +5687,7 @@
       <c r="B198">
         <v>197</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>797848052</v>
       </c>
       <c r="D198">
@@ -5699,7 +5704,7 @@
       <c r="B199">
         <v>198</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>797836052</v>
       </c>
       <c r="D199">
@@ -5716,7 +5721,7 @@
       <c r="B200">
         <v>199</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>797812052</v>
       </c>
       <c r="D200">
@@ -5733,7 +5738,7 @@
       <c r="B201">
         <v>200</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>797788052</v>
       </c>
       <c r="D201">
@@ -5750,7 +5755,7 @@
       <c r="B202">
         <v>201</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>797764052</v>
       </c>
       <c r="D202">
@@ -5767,7 +5772,7 @@
       <c r="B203">
         <v>202</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>797740052</v>
       </c>
       <c r="D203">
@@ -5784,7 +5789,7 @@
       <c r="B204">
         <v>203</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>797716052</v>
       </c>
       <c r="D204">
@@ -5801,7 +5806,7 @@
       <c r="B205">
         <v>204</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>797668052</v>
       </c>
       <c r="D205">
@@ -5818,7 +5823,7 @@
       <c r="B206">
         <v>205</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>797644052</v>
       </c>
       <c r="D206">
@@ -5835,7 +5840,7 @@
       <c r="B207">
         <v>206</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>797620052</v>
       </c>
       <c r="D207">
@@ -5852,7 +5857,7 @@
       <c r="B208">
         <v>207</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>797596052</v>
       </c>
       <c r="D208">
@@ -5869,7 +5874,7 @@
       <c r="B209">
         <v>208</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>797626052</v>
       </c>
       <c r="D209">
@@ -5886,7 +5891,7 @@
       <c r="B210">
         <v>209</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>797629052</v>
       </c>
       <c r="D210">
@@ -5903,7 +5908,7 @@
       <c r="B211">
         <v>210</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>797605052</v>
       </c>
       <c r="D211">
@@ -5920,7 +5925,7 @@
       <c r="B212">
         <v>211</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>797617052</v>
       </c>
       <c r="D212">
@@ -5937,7 +5942,7 @@
       <c r="B213">
         <v>212</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>797629052</v>
       </c>
       <c r="D213">
@@ -5954,7 +5959,7 @@
       <c r="B214">
         <v>213</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>797605052</v>
       </c>
       <c r="D214">
@@ -5971,7 +5976,7 @@
       <c r="B215">
         <v>214</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>797581052</v>
       </c>
       <c r="D215">
@@ -5988,7 +5993,7 @@
       <c r="B216">
         <v>215</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>797557052</v>
       </c>
       <c r="D216">
@@ -6005,7 +6010,7 @@
       <c r="B217">
         <v>216</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>797587052</v>
       </c>
       <c r="D217">
@@ -6022,7 +6027,7 @@
       <c r="B218">
         <v>217</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>797563052</v>
       </c>
       <c r="D218">
@@ -6039,7 +6044,7 @@
       <c r="B219">
         <v>218</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>797515052</v>
       </c>
       <c r="D219">
@@ -6056,7 +6061,7 @@
       <c r="B220">
         <v>219</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>797551052</v>
       </c>
       <c r="D220">
@@ -6073,7 +6078,7 @@
       <c r="B221">
         <v>220</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>797533052</v>
       </c>
       <c r="D221">
@@ -6090,7 +6095,7 @@
       <c r="B222">
         <v>221</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>797533052</v>
       </c>
       <c r="D222">
@@ -6107,7 +6112,7 @@
       <c r="B223">
         <v>222</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>797518052</v>
       </c>
       <c r="D223">
@@ -6124,7 +6129,7 @@
       <c r="B224">
         <v>223</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>797494052</v>
       </c>
       <c r="D224">
@@ -6141,7 +6146,7 @@
       <c r="B225">
         <v>224</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>797470052</v>
       </c>
       <c r="D225">
@@ -6158,7 +6163,7 @@
       <c r="B226">
         <v>225</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>797494052</v>
       </c>
       <c r="D226">
@@ -6175,7 +6180,7 @@
       <c r="B227">
         <v>226</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>797470052</v>
       </c>
       <c r="D227">
@@ -6192,7 +6197,7 @@
       <c r="B228">
         <v>227</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>797446052</v>
       </c>
       <c r="D228">
@@ -6209,7 +6214,7 @@
       <c r="B229">
         <v>228</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>797422052</v>
       </c>
       <c r="D229">
@@ -6226,7 +6231,7 @@
       <c r="B230">
         <v>229</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>797434052</v>
       </c>
       <c r="D230">
@@ -6243,7 +6248,7 @@
       <c r="B231">
         <v>230</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>797410052</v>
       </c>
       <c r="D231">
@@ -6260,7 +6265,7 @@
       <c r="B232">
         <v>231</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>797392052</v>
       </c>
       <c r="D232">
@@ -6277,7 +6282,7 @@
       <c r="B233">
         <v>232</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>797377052</v>
       </c>
       <c r="D233">
@@ -6294,7 +6299,7 @@
       <c r="B234">
         <v>233</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>797353052</v>
       </c>
       <c r="D234">
@@ -6311,7 +6316,7 @@
       <c r="B235">
         <v>234</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>797335052</v>
       </c>
       <c r="D235">
@@ -6328,7 +6333,7 @@
       <c r="B236">
         <v>235</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>797338052</v>
       </c>
       <c r="D236">
@@ -6345,7 +6350,7 @@
       <c r="B237">
         <v>236</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>797362052</v>
       </c>
       <c r="D237">
@@ -6362,7 +6367,7 @@
       <c r="B238">
         <v>237</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>797338052</v>
       </c>
       <c r="D238">
@@ -6379,7 +6384,7 @@
       <c r="B239">
         <v>238</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>797314052</v>
       </c>
       <c r="D239">
@@ -6396,7 +6401,7 @@
       <c r="B240">
         <v>239</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>797506052</v>
       </c>
       <c r="D240">
@@ -6413,7 +6418,7 @@
       <c r="B241">
         <v>240</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>797488052</v>
       </c>
       <c r="D241">
@@ -6430,7 +6435,7 @@
       <c r="B242">
         <v>241</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>797446052</v>
       </c>
       <c r="D242">
@@ -6447,7 +6452,7 @@
       <c r="B243">
         <v>242</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>797422052</v>
       </c>
       <c r="D243">
@@ -6464,7 +6469,7 @@
       <c r="B244">
         <v>243</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>798262052</v>
       </c>
       <c r="D244">
@@ -6481,7 +6486,7 @@
       <c r="B245">
         <v>244</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>798280052</v>
       </c>
       <c r="D245">
@@ -6498,7 +6503,7 @@
       <c r="B246">
         <v>245</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>798262052</v>
       </c>
       <c r="D246">
@@ -6515,7 +6520,7 @@
       <c r="B247">
         <v>246</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>798346052</v>
       </c>
       <c r="D247">
@@ -6532,7 +6537,7 @@
       <c r="B248">
         <v>247</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>798331052</v>
       </c>
       <c r="D248">
@@ -6549,7 +6554,7 @@
       <c r="B249">
         <v>248</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>798307052</v>
       </c>
       <c r="D249">
@@ -6566,7 +6571,7 @@
       <c r="B250">
         <v>249</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>798283052</v>
       </c>
       <c r="D250">
@@ -6583,7 +6588,7 @@
       <c r="B251">
         <v>250</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>798259052</v>
       </c>
       <c r="D251">
@@ -6600,7 +6605,7 @@
       <c r="B252">
         <v>251</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>798247052</v>
       </c>
       <c r="D252">
@@ -6617,7 +6622,7 @@
       <c r="B253">
         <v>252</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>798298172</v>
       </c>
       <c r="D253">
@@ -6634,7 +6639,7 @@
       <c r="B254">
         <v>253</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>798592172</v>
       </c>
       <c r="D254">
@@ -6651,7 +6656,7 @@
       <c r="B255">
         <v>254</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>798568172</v>
       </c>
       <c r="D255">
@@ -6668,7 +6673,7 @@
       <c r="B256">
         <v>255</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>798544172</v>
       </c>
       <c r="D256">
@@ -6685,7 +6690,7 @@
       <c r="B257">
         <v>256</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>798535172</v>
       </c>
       <c r="D257">
@@ -6702,7 +6707,7 @@
       <c r="B258">
         <v>257</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>798517172</v>
       </c>
       <c r="D258">
@@ -6719,7 +6724,7 @@
       <c r="B259">
         <v>258</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>798493172</v>
       </c>
       <c r="D259">
@@ -6736,7 +6741,7 @@
       <c r="B260">
         <v>259</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>798469172</v>
       </c>
       <c r="D260">
@@ -6753,7 +6758,7 @@
       <c r="B261">
         <v>260</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>798445172</v>
       </c>
       <c r="D261">
@@ -6770,7 +6775,7 @@
       <c r="B262">
         <v>261</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>798421172</v>
       </c>
       <c r="D262">
@@ -6787,7 +6792,7 @@
       <c r="B263">
         <v>262</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>798397172</v>
       </c>
       <c r="D263">
@@ -6804,7 +6809,7 @@
       <c r="B264">
         <v>263</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>798535172</v>
       </c>
       <c r="D264">
@@ -6821,7 +6826,7 @@
       <c r="B265">
         <v>264</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>798511172</v>
       </c>
       <c r="D265">
@@ -6838,7 +6843,7 @@
       <c r="B266">
         <v>265</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>798493172</v>
       </c>
       <c r="D266">
@@ -6855,7 +6860,7 @@
       <c r="B267">
         <v>266</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>798421172</v>
       </c>
       <c r="D267">
@@ -6872,7 +6877,7 @@
       <c r="B268">
         <v>267</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>798397172</v>
       </c>
       <c r="D268">
@@ -6889,7 +6894,7 @@
       <c r="B269">
         <v>268</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>798391172</v>
       </c>
       <c r="D269">
@@ -6906,7 +6911,7 @@
       <c r="B270">
         <v>269</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>798367172</v>
       </c>
       <c r="D270">
@@ -6923,7 +6928,7 @@
       <c r="B271">
         <v>270</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>798349172</v>
       </c>
       <c r="D271">
@@ -6940,7 +6945,7 @@
       <c r="B272">
         <v>271</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>798325172</v>
       </c>
       <c r="D272">
@@ -6957,7 +6962,7 @@
       <c r="B273">
         <v>272</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>798301172</v>
       </c>
       <c r="D273">
@@ -6974,7 +6979,7 @@
       <c r="B274">
         <v>273</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>798277172</v>
       </c>
       <c r="D274">
@@ -6991,7 +6996,7 @@
       <c r="B275">
         <v>274</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>798253172</v>
       </c>
       <c r="D275">
@@ -7008,7 +7013,7 @@
       <c r="B276">
         <v>275</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>798229172</v>
       </c>
       <c r="D276">
@@ -7025,7 +7030,7 @@
       <c r="B277">
         <v>276</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>798445172</v>
       </c>
       <c r="D277">
@@ -7042,7 +7047,7 @@
       <c r="B278">
         <v>277</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>798427172</v>
       </c>
       <c r="D278">
@@ -7059,7 +7064,7 @@
       <c r="B279">
         <v>278</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>798361172</v>
       </c>
       <c r="D279">
@@ -7076,7 +7081,7 @@
       <c r="B280">
         <v>279</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>798337172</v>
       </c>
       <c r="D280">
@@ -7093,7 +7098,7 @@
       <c r="B281">
         <v>280</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>798313172</v>
       </c>
       <c r="D281">
@@ -7110,7 +7115,7 @@
       <c r="B282">
         <v>281</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>798289172</v>
       </c>
       <c r="D282">
@@ -7127,7 +7132,7 @@
       <c r="B283">
         <v>282</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>798253172</v>
       </c>
       <c r="D283">
@@ -7144,7 +7149,7 @@
       <c r="B284">
         <v>283</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>798229172</v>
       </c>
       <c r="D284">
@@ -7161,7 +7166,7 @@
       <c r="B285">
         <v>284</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>798205172</v>
       </c>
       <c r="D285">
@@ -7178,7 +7183,7 @@
       <c r="B286">
         <v>285</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>798181172</v>
       </c>
       <c r="D286">
@@ -7195,7 +7200,7 @@
       <c r="B287">
         <v>286</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>798157172</v>
       </c>
       <c r="D287">
@@ -7212,7 +7217,7 @@
       <c r="B288">
         <v>287</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>798133172</v>
       </c>
       <c r="D288">
@@ -7229,7 +7234,7 @@
       <c r="B289">
         <v>288</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>798109172</v>
       </c>
       <c r="D289">
@@ -7246,7 +7251,7 @@
       <c r="B290">
         <v>289</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>798085172</v>
       </c>
       <c r="D290">
@@ -7263,7 +7268,7 @@
       <c r="B291">
         <v>290</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>798061172</v>
       </c>
       <c r="D291">
@@ -7280,7 +7285,7 @@
       <c r="B292">
         <v>291</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>798013172</v>
       </c>
       <c r="D292">
@@ -7297,7 +7302,7 @@
       <c r="B293">
         <v>292</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>798001172</v>
       </c>
       <c r="D293">
@@ -7314,7 +7319,7 @@
       <c r="B294">
         <v>293</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>797977172</v>
       </c>
       <c r="D294">
@@ -7331,7 +7336,7 @@
       <c r="B295">
         <v>294</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>797953172</v>
       </c>
       <c r="D295">
@@ -7348,7 +7353,7 @@
       <c r="B296">
         <v>295</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>797941172</v>
       </c>
       <c r="D296">
@@ -7365,7 +7370,7 @@
       <c r="B297">
         <v>296</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>797917172</v>
       </c>
       <c r="D297">
@@ -7382,7 +7387,7 @@
       <c r="B298">
         <v>297</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>8008872</v>
       </c>
       <c r="D298">
@@ -7399,7 +7404,7 @@
       <c r="B299">
         <v>298</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>798289172</v>
       </c>
       <c r="D299">
@@ -7416,7 +7421,7 @@
       <c r="B300">
         <v>299</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>798277292</v>
       </c>
       <c r="D300">
@@ -7433,7 +7438,7 @@
       <c r="B301">
         <v>300</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>798253292</v>
       </c>
       <c r="D301">
@@ -7450,7 +7455,7 @@
       <c r="B302">
         <v>301</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>798229292</v>
       </c>
       <c r="D302">
@@ -7467,7 +7472,7 @@
       <c r="B303">
         <v>302</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>798205292</v>
       </c>
       <c r="D303">
@@ -7484,7 +7489,7 @@
       <c r="B304">
         <v>303</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>798289292</v>
       </c>
       <c r="D304">
@@ -7501,7 +7506,7 @@
       <c r="B305">
         <v>304</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>798265292</v>
       </c>
       <c r="D305">
@@ -7518,7 +7523,7 @@
       <c r="B306">
         <v>305</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>798241292</v>
       </c>
       <c r="D306">
@@ -7535,7 +7540,7 @@
       <c r="B307">
         <v>306</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>798217292</v>
       </c>
       <c r="D307">
@@ -7552,7 +7557,7 @@
       <c r="B308">
         <v>307</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>798193292</v>
       </c>
       <c r="D308">
@@ -7569,7 +7574,7 @@
       <c r="B309">
         <v>308</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>798205292</v>
       </c>
       <c r="D309">
@@ -7586,7 +7591,7 @@
       <c r="B310">
         <v>309</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>798187292</v>
       </c>
       <c r="D310">
@@ -7603,7 +7608,7 @@
       <c r="B311">
         <v>310</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>798163292</v>
       </c>
       <c r="D311">
@@ -7620,7 +7625,7 @@
       <c r="B312">
         <v>311</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>798139292</v>
       </c>
       <c r="D312">
@@ -7637,7 +7642,7 @@
       <c r="B313">
         <v>312</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>798115292</v>
       </c>
       <c r="D313">
@@ -7654,7 +7659,7 @@
       <c r="B314">
         <v>313</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>798091292</v>
       </c>
       <c r="D314">
@@ -7671,7 +7676,7 @@
       <c r="B315">
         <v>314</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>798067292</v>
       </c>
       <c r="D315">
@@ -7688,7 +7693,7 @@
       <c r="B316">
         <v>315</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>798055292</v>
       </c>
       <c r="D316">
@@ -7705,7 +7710,7 @@
       <c r="B317">
         <v>316</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>798031292</v>
       </c>
       <c r="D317">
@@ -7722,7 +7727,7 @@
       <c r="B318">
         <v>317</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>798007292</v>
       </c>
       <c r="D318">
@@ -7739,7 +7744,7 @@
       <c r="B319">
         <v>318</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>797983292</v>
       </c>
       <c r="D319">
@@ -7756,7 +7761,7 @@
       <c r="B320">
         <v>319</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>798439292</v>
       </c>
       <c r="D320">
@@ -7773,7 +7778,7 @@
       <c r="B321">
         <v>320</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>798433292</v>
       </c>
       <c r="D321">
@@ -7790,7 +7795,7 @@
       <c r="B322">
         <v>321</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>798409292</v>
       </c>
       <c r="D322">
@@ -7807,7 +7812,7 @@
       <c r="B323">
         <v>322</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>798385292</v>
       </c>
       <c r="D323">
@@ -7824,7 +7829,7 @@
       <c r="B324">
         <v>323</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>798361292</v>
       </c>
       <c r="D324">
@@ -7841,7 +7846,7 @@
       <c r="B325">
         <v>324</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>798337292</v>
       </c>
       <c r="D325">
@@ -7858,7 +7863,7 @@
       <c r="B326">
         <v>325</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>798313292</v>
       </c>
       <c r="D326">
@@ -7875,7 +7880,7 @@
       <c r="B327">
         <v>326</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>798250292</v>
       </c>
       <c r="D327">
@@ -7892,7 +7897,7 @@
       <c r="B328">
         <v>327</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>798226292</v>
       </c>
       <c r="D328">
@@ -7909,7 +7914,7 @@
       <c r="B329">
         <v>328</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>798220292</v>
       </c>
       <c r="D329">
@@ -7926,7 +7931,7 @@
       <c r="B330">
         <v>329</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>798196292</v>
       </c>
       <c r="D330">
@@ -7943,7 +7948,7 @@
       <c r="B331">
         <v>330</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>798868292</v>
       </c>
       <c r="D331">
@@ -7960,7 +7965,7 @@
       <c r="B332">
         <v>331</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>798844292</v>
       </c>
       <c r="D332">
@@ -7977,7 +7982,7 @@
       <c r="B333">
         <v>332</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>798820292</v>
       </c>
       <c r="D333">
@@ -7994,7 +7999,7 @@
       <c r="B334">
         <v>333</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>798796292</v>
       </c>
       <c r="D334">
@@ -8011,7 +8016,7 @@
       <c r="B335">
         <v>334</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>798772292</v>
       </c>
       <c r="D335">
@@ -8028,7 +8033,7 @@
       <c r="B336">
         <v>335</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>798706292</v>
       </c>
       <c r="D336">
@@ -8045,7 +8050,7 @@
       <c r="B337">
         <v>336</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>798682292</v>
       </c>
       <c r="D337">
@@ -8062,7 +8067,7 @@
       <c r="B338">
         <v>337</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>798658292</v>
       </c>
       <c r="D338">
@@ -8079,7 +8084,7 @@
       <c r="B339">
         <v>338</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>798634292</v>
       </c>
       <c r="D339">
@@ -8096,7 +8101,7 @@
       <c r="B340">
         <v>339</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>798610292</v>
       </c>
       <c r="D340">
@@ -8113,7 +8118,7 @@
       <c r="B341">
         <v>340</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>798586292</v>
       </c>
       <c r="D341">
@@ -8130,7 +8135,7 @@
       <c r="B342">
         <v>341</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>798598292</v>
       </c>
       <c r="D342">
@@ -8147,7 +8152,7 @@
       <c r="B343">
         <v>342</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>798574292</v>
       </c>
       <c r="D343">
@@ -8164,7 +8169,7 @@
       <c r="B344">
         <v>343</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>798574292</v>
       </c>
       <c r="D344">
@@ -8181,7 +8186,7 @@
       <c r="B345">
         <v>344</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>799267292</v>
       </c>
       <c r="D345">
@@ -8198,7 +8203,7 @@
       <c r="B346">
         <v>345</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>799261292</v>
       </c>
       <c r="D346">
@@ -8215,7 +8220,7 @@
       <c r="B347">
         <v>346</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>799237292</v>
       </c>
       <c r="D347">
@@ -8232,7 +8237,7 @@
       <c r="B348">
         <v>347</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>799861292</v>
       </c>
       <c r="D348">
@@ -8249,7 +8254,7 @@
       <c r="B349">
         <v>348</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>799837292</v>
       </c>
       <c r="D349">
@@ -8266,7 +8271,7 @@
       <c r="B350">
         <v>349</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>799831292</v>
       </c>
       <c r="D350">
@@ -8283,7 +8288,7 @@
       <c r="B351">
         <v>350</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>799807292</v>
       </c>
       <c r="D351">
@@ -8300,7 +8305,7 @@
       <c r="B352">
         <v>351</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>799753292</v>
       </c>
       <c r="D352">
@@ -8317,7 +8322,7 @@
       <c r="B353">
         <v>352</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>799747292</v>
       </c>
       <c r="D353">
@@ -8334,7 +8339,7 @@
       <c r="B354">
         <v>353</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>799759292</v>
       </c>
       <c r="D354">
@@ -8351,7 +8356,7 @@
       <c r="B355">
         <v>354</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>799795292</v>
       </c>
       <c r="D355">
@@ -8368,7 +8373,7 @@
       <c r="B356">
         <v>355</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>799771292</v>
       </c>
       <c r="D356">
@@ -8385,7 +8390,7 @@
       <c r="B357">
         <v>356</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>799747292</v>
       </c>
       <c r="D357">
@@ -8402,7 +8407,7 @@
       <c r="B358">
         <v>357</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>799735292</v>
       </c>
       <c r="D358">
@@ -8419,7 +8424,7 @@
       <c r="B359">
         <v>358</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>799711292</v>
       </c>
       <c r="D359">
@@ -8436,7 +8441,7 @@
       <c r="B360">
         <v>359</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>799687292</v>
       </c>
       <c r="D360">
@@ -8453,7 +8458,7 @@
       <c r="B361">
         <v>360</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>799663292</v>
       </c>
       <c r="D361">
@@ -8470,7 +8475,7 @@
       <c r="B362">
         <v>361</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>799639292</v>
       </c>
       <c r="D362">
@@ -8487,7 +8492,7 @@
       <c r="B363">
         <v>362</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>800143292</v>
       </c>
       <c r="D363">
@@ -8504,7 +8509,7 @@
       <c r="B364">
         <v>363</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>800119292</v>
       </c>
       <c r="D364">
@@ -8521,7 +8526,7 @@
       <c r="B365">
         <v>364</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>800101292</v>
       </c>
       <c r="D365">
@@ -8538,7 +8543,7 @@
       <c r="B366">
         <v>365</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>800089292</v>
       </c>
       <c r="D366">
@@ -8555,7 +8560,7 @@
       <c r="B367">
         <v>366</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>800077292</v>
       </c>
       <c r="D367">
@@ -8572,7 +8577,7 @@
       <c r="B368">
         <v>367</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>800053292</v>
       </c>
       <c r="D368">
@@ -8589,7 +8594,7 @@
       <c r="B369">
         <v>368</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>800029292</v>
       </c>
       <c r="D369">
@@ -8606,7 +8611,7 @@
       <c r="B370">
         <v>369</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>799957292</v>
       </c>
       <c r="D370">
@@ -8623,7 +8628,7 @@
       <c r="B371">
         <v>370</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>799933292</v>
       </c>
       <c r="D371">
@@ -8640,7 +8645,7 @@
       <c r="B372">
         <v>371</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>799915292</v>
       </c>
       <c r="D372">
@@ -8657,7 +8662,7 @@
       <c r="B373">
         <v>372</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>799891292</v>
       </c>
       <c r="D373">
@@ -8674,7 +8679,7 @@
       <c r="B374">
         <v>373</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>799894292</v>
       </c>
       <c r="D374">
@@ -8691,7 +8696,7 @@
       <c r="B375">
         <v>374</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>799960292</v>
       </c>
       <c r="D375">
@@ -8708,7 +8713,7 @@
       <c r="B376">
         <v>375</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>799936292</v>
       </c>
       <c r="D376">
@@ -8725,7 +8730,7 @@
       <c r="B377">
         <v>376</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>799924292</v>
       </c>
       <c r="D377">
@@ -8742,7 +8747,7 @@
       <c r="B378">
         <v>377</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>799876292</v>
       </c>
       <c r="D378">
@@ -8759,7 +8764,7 @@
       <c r="B379">
         <v>378</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>799852292</v>
       </c>
       <c r="D379">
@@ -8776,7 +8781,7 @@
       <c r="B380">
         <v>379</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>799828292</v>
       </c>
       <c r="D380">
@@ -8793,7 +8798,7 @@
       <c r="B381">
         <v>380</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>799804292</v>
       </c>
       <c r="D381">
@@ -8810,7 +8815,7 @@
       <c r="B382">
         <v>381</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>799798292</v>
       </c>
       <c r="D382">
@@ -8827,7 +8832,7 @@
       <c r="B383">
         <v>382</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>799774292</v>
       </c>
       <c r="D383">
@@ -8844,7 +8849,7 @@
       <c r="B384">
         <v>383</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>799759292</v>
       </c>
       <c r="D384">
@@ -8861,7 +8866,7 @@
       <c r="B385">
         <v>384</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>799735292</v>
       </c>
       <c r="D385">
@@ -8878,7 +8883,7 @@
       <c r="B386">
         <v>385</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>799711292</v>
       </c>
       <c r="D386">
@@ -8895,7 +8900,7 @@
       <c r="B387">
         <v>386</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>799687292</v>
       </c>
       <c r="D387">
@@ -8912,7 +8917,7 @@
       <c r="B388">
         <v>387</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>799681292</v>
       </c>
       <c r="D388">
@@ -8929,7 +8934,7 @@
       <c r="B389">
         <v>388</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>799657292</v>
       </c>
       <c r="D389">
@@ -8946,7 +8951,7 @@
       <c r="B390">
         <v>389</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>799633292</v>
       </c>
       <c r="D390">
@@ -8963,7 +8968,7 @@
       <c r="B391">
         <v>390</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>799609292</v>
       </c>
       <c r="D391">
@@ -8980,7 +8985,7 @@
       <c r="B392">
         <v>391</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>799585292</v>
       </c>
       <c r="D392">
@@ -8997,7 +9002,7 @@
       <c r="B393">
         <v>392</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>799537292</v>
       </c>
       <c r="D393">
@@ -9014,7 +9019,7 @@
       <c r="B394">
         <v>393</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>799513292</v>
       </c>
       <c r="D394">
@@ -9031,7 +9036,7 @@
       <c r="B395">
         <v>394</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>799489292</v>
       </c>
       <c r="D395">
@@ -9048,7 +9053,7 @@
       <c r="B396">
         <v>395</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>799417292</v>
       </c>
       <c r="D396">
@@ -9065,7 +9070,7 @@
       <c r="B397">
         <v>396</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>799393292</v>
       </c>
       <c r="D397">
@@ -9082,7 +9087,7 @@
       <c r="B398">
         <v>397</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>799321292</v>
       </c>
       <c r="D398">
@@ -9099,7 +9104,7 @@
       <c r="B399">
         <v>398</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>799327292</v>
       </c>
       <c r="D399">
@@ -9116,7 +9121,7 @@
       <c r="B400">
         <v>399</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>799309292</v>
       </c>
       <c r="D400">
@@ -9133,7 +9138,7 @@
       <c r="B401">
         <v>400</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>799285292</v>
       </c>
       <c r="D401">
@@ -9150,7 +9155,7 @@
       <c r="B402">
         <v>401</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>799237292</v>
       </c>
       <c r="D402">
@@ -9167,7 +9172,7 @@
       <c r="B403">
         <v>402</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>799225292</v>
       </c>
       <c r="D403">
@@ -9184,7 +9189,7 @@
       <c r="B404">
         <v>403</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>799201292</v>
       </c>
       <c r="D404">
@@ -9201,7 +9206,7 @@
       <c r="B405">
         <v>404</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>799286869</v>
       </c>
       <c r="D405">
@@ -9218,7 +9223,7 @@
       <c r="B406">
         <v>405</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>799267292</v>
       </c>
       <c r="D406">
@@ -9235,7 +9240,7 @@
       <c r="B407">
         <v>406</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>799243292</v>
       </c>
       <c r="D407">
@@ -9252,7 +9257,7 @@
       <c r="B408">
         <v>407</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>799219292</v>
       </c>
       <c r="D408">
@@ -9269,7 +9274,7 @@
       <c r="B409">
         <v>408</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>799171292</v>
       </c>
       <c r="D409">
@@ -9286,7 +9291,7 @@
       <c r="B410">
         <v>409</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="1">
         <v>799165292</v>
       </c>
       <c r="D410">
@@ -9303,7 +9308,7 @@
       <c r="B411">
         <v>410</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="1">
         <v>799093292</v>
       </c>
       <c r="D411">
@@ -9320,7 +9325,7 @@
       <c r="B412">
         <v>411</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="1">
         <v>799075292</v>
       </c>
       <c r="D412">
@@ -9337,7 +9342,7 @@
       <c r="B413">
         <v>412</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>799003292</v>
       </c>
       <c r="D413">
@@ -9354,7 +9359,7 @@
       <c r="B414">
         <v>413</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>798979292</v>
       </c>
       <c r="D414">
@@ -9371,7 +9376,7 @@
       <c r="B415">
         <v>414</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>798973292</v>
       </c>
       <c r="D415">
@@ -9388,7 +9393,7 @@
       <c r="B416">
         <v>415</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>799141292</v>
       </c>
       <c r="D416">
@@ -9405,7 +9410,7 @@
       <c r="B417">
         <v>416</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="1">
         <v>799309292</v>
       </c>
       <c r="D417">
@@ -9422,7 +9427,7 @@
       <c r="B418">
         <v>417</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>799549292</v>
       </c>
       <c r="D418">
@@ -9439,7 +9444,7 @@
       <c r="B419">
         <v>418</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>799531292</v>
       </c>
       <c r="D419">
@@ -9456,7 +9461,7 @@
       <c r="B420">
         <v>419</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="1">
         <v>799507292</v>
       </c>
       <c r="D420">
@@ -9473,7 +9478,7 @@
       <c r="B421">
         <v>420</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>799483292</v>
       </c>
       <c r="D421">
@@ -9490,7 +9495,7 @@
       <c r="B422">
         <v>421</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>799459292</v>
       </c>
       <c r="D422">
@@ -9507,7 +9512,7 @@
       <c r="B423">
         <v>422</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>799471292</v>
       </c>
       <c r="D423">
@@ -9524,7 +9529,7 @@
       <c r="B424">
         <v>423</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>799447292</v>
       </c>
       <c r="D424">
@@ -9541,7 +9546,7 @@
       <c r="B425">
         <v>424</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>799468292</v>
       </c>
       <c r="D425">
@@ -9569,7 +9574,7 @@
       <c r="B427">
         <v>426</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="1">
         <v>801814292</v>
       </c>
       <c r="D427">
@@ -9586,7 +9591,7 @@
       <c r="B428">
         <v>427</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="1">
         <v>801790292</v>
       </c>
       <c r="D428">
@@ -9603,7 +9608,7 @@
       <c r="B429">
         <v>428</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>801766292</v>
       </c>
       <c r="D429">
@@ -9620,7 +9625,7 @@
       <c r="B430">
         <v>429</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>801778292</v>
       </c>
       <c r="D430">
@@ -9637,7 +9642,7 @@
       <c r="B431">
         <v>430</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>801778292</v>
       </c>
       <c r="D431">
@@ -9654,7 +9659,7 @@
       <c r="B432">
         <v>431</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>801754292</v>
       </c>
       <c r="D432">
@@ -9671,7 +9676,7 @@
       <c r="B433">
         <v>432</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>801688292</v>
       </c>
       <c r="D433">
@@ -9688,7 +9693,7 @@
       <c r="B434">
         <v>433</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>801664292</v>
       </c>
       <c r="D434">
@@ -9705,7 +9710,7 @@
       <c r="B435">
         <v>434</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>801652292</v>
       </c>
       <c r="D435">
@@ -9722,7 +9727,7 @@
       <c r="B436">
         <v>435</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>801604292</v>
       </c>
       <c r="D436">
